--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Longa.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Longa.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.641478602184037</v>
+        <v>1.637007905307379</v>
       </c>
       <c r="C2" t="n">
-        <v>2.143790041743521</v>
+        <v>2.136839981357869</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1170189541996998</v>
+        <v>-0.104899421407004</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5699939866586008</v>
+        <v>1.524080962532697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2888888888888883</v>
+        <v>2.25111111111111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9837594499107245</v>
+        <v>0.1698591361477161</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.603805756313404</v>
+        <v>0.9605357173497543</v>
       </c>
       <c r="C4" t="n">
-        <v>2.395976929449153</v>
+        <v>0.7776212832551026</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01795061953379284</v>
+        <v>0.8690294310658194</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.642040476128098</v>
+        <v>1.636994083545595</v>
       </c>
       <c r="C5" t="n">
-        <v>2.157188276693006</v>
+        <v>2.147574700561443</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1185491506193441</v>
+        <v>-0.1048621058555421</v>
       </c>
     </row>
     <row r="6">

--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Longa.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Longa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Execution Time (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage (B)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>-0.104899421407004</v>
       </c>
+      <c r="E2" t="n">
+        <v>7.384800002910197</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>0.1698591361477161</v>
       </c>
+      <c r="E3" t="n">
+        <v>6.279799999902025</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>0.8690294310658194</v>
       </c>
+      <c r="E4" t="n">
+        <v>25.28699999675155</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>-0.1048621058555421</v>
       </c>
+      <c r="E5" t="n">
+        <v>4.357500001788139</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -533,6 +567,12 @@
       </c>
       <c r="D6" t="n">
         <v>-7.706135689685629</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.843600010033697</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
